--- a/tests/HardPositions/110121TestSuite.xlsx
+++ b/tests/HardPositions/110121TestSuite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ShashChess\tests\HardPositions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A404CB5-E825-4D1C-83E1-116E8B765310}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0CA93D-9AEA-4868-8D16-C26AF6F0BA28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{5B7D682B-7996-4E25-8956-27C322BF2796}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="393">
   <si>
     <t>ShashChess 291021</t>
   </si>
@@ -1197,18 +1197,29 @@
     <t>Qh5 (64)</t>
   </si>
   <si>
-    <t>ShashChess: 200</t>
-  </si>
-  <si>
-    <t>Stockfish: 178</t>
+    <t>ShashChess 14.1: 200</t>
+  </si>
+  <si>
+    <t>Stockfish 14.1: 178</t>
+  </si>
+  <si>
+    <t>Solved</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1236,26 +1247,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00A65D"/>
-          <bgColor rgb="FF00A65D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1565,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC99BD7-75DA-4570-9355-9A4FEF27901E}">
-  <dimension ref="A1:B320"/>
+  <dimension ref="A1:B322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="A320" sqref="A320"/>
+    <sheetView tabSelected="1" topLeftCell="A310" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+      <selection activeCell="A318" sqref="A318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4131,13 +4130,22 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
         <v>390</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B321" t="s">
         <v>391</v>
       </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>